--- a/results/mp/logistic/corona/confidence/210/desired-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,177 +40,192 @@
     <t>name</t>
   </si>
   <si>
-    <t>warned</t>
+    <t>killed</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>lowest</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>recession</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>fear</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>shortages</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>are</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -223,199 +238,220 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>huge</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>article</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>give</t>
+    <t>increased</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>,</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -773,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -781,10 +817,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -863,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -892,13 +928,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -910,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -942,13 +978,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.918918918918919</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -960,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -984,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -992,13 +1028,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9117647058823529</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1013,16 +1049,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1034,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1063,16 +1099,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K7">
         <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1084,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1092,13 +1128,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8888888888888888</v>
+        <v>0.88</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1110,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1134,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1145,10 +1181,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1160,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1184,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1213,16 +1249,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K10">
-        <v>0.9322033898305084</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1234,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1242,13 +1278,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8664383561643836</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1260,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K11">
-        <v>0.9230769230769231</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>348</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>348</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1284,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1292,13 +1328,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.84</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1310,31 +1346,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12">
+        <v>0.9069767441860465</v>
+      </c>
+      <c r="L12">
+        <v>39</v>
+      </c>
+      <c r="M12">
+        <v>39</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>4</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12">
-        <v>0.9112271540469974</v>
-      </c>
-      <c r="L12">
-        <v>349</v>
-      </c>
-      <c r="M12">
-        <v>349</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1342,13 +1378,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8333333333333334</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1360,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K13">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1413,16 +1449,16 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K14">
-        <v>0.9069767441860465</v>
+        <v>0.89375</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1434,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1442,13 +1478,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8076923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1460,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K15">
-        <v>0.8984375</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L15">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1484,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1492,13 +1528,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7948717948717948</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1510,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K16">
-        <v>0.8947368421052632</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1534,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1542,13 +1578,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7931034482758621</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1560,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K17">
-        <v>0.8873239436619719</v>
+        <v>0.8828125</v>
       </c>
       <c r="L17">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M17">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1584,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1592,13 +1628,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7826086956521739</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1610,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K18">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L18">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1634,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1642,13 +1678,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7666666666666667</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1660,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K19">
-        <v>0.88125</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L19">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="M19">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1684,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1692,13 +1728,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7368421052631579</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1710,19 +1746,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K20">
-        <v>0.8773584905660378</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L20">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1734,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1742,13 +1778,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7368421052631579</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1760,31 +1796,31 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L21">
+        <v>31</v>
+      </c>
+      <c r="M21">
+        <v>31</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>5</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21">
-        <v>0.8723404255319149</v>
-      </c>
-      <c r="L21">
-        <v>41</v>
-      </c>
-      <c r="M21">
-        <v>41</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1792,13 +1828,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1810,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K22">
-        <v>0.8658536585365854</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L22">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1834,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1842,13 +1878,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6956521739130435</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1860,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K23">
-        <v>0.8620689655172413</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M23">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1884,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1892,13 +1928,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6956521739130435</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1913,16 +1949,16 @@
         <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K24">
-        <v>0.8611111111111112</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1934,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1942,13 +1978,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6878306878306878</v>
+        <v>0.725</v>
       </c>
       <c r="C25">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1960,19 +1996,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K25">
-        <v>0.8421052631578947</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1984,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1992,13 +2028,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6821705426356589</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C26">
-        <v>352</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>352</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2010,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K26">
-        <v>0.8253968253968254</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L26">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2034,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2042,13 +2078,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6779661016949152</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2060,19 +2096,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K27">
-        <v>0.825</v>
+        <v>0.8125</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2084,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2092,13 +2128,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.65</v>
+        <v>0.6875</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2110,19 +2146,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K28">
-        <v>0.8214285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2134,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2142,13 +2178,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6363636363636364</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>354</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>354</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2160,19 +2196,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K29">
-        <v>0.8125</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2184,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2192,13 +2228,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6296296296296297</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2210,19 +2246,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K30">
-        <v>0.7948717948717948</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2234,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2242,13 +2278,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2260,19 +2296,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K31">
-        <v>0.7727272727272727</v>
+        <v>0.75</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2284,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2292,13 +2328,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6174496644295302</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C32">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D32">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2310,19 +2346,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K32">
-        <v>0.7714285714285715</v>
+        <v>0.7441176470588236</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2334,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2342,13 +2378,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6153846153846154</v>
+        <v>0.65</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2360,19 +2396,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K33">
-        <v>0.75</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2384,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2392,13 +2428,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6129032258064516</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2410,19 +2446,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K34">
-        <v>0.7470588235294118</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L34">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2434,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2442,37 +2478,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5909090909090909</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>13</v>
       </c>
-      <c r="D35">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>9</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K35">
-        <v>0.7407407407407407</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2492,13 +2528,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2510,19 +2546,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K36">
-        <v>0.7391304347826086</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2534,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2542,13 +2578,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2563,16 +2599,16 @@
         <v>15</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K37">
-        <v>0.7220338983050848</v>
+        <v>0.72</v>
       </c>
       <c r="L37">
-        <v>213</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>213</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2584,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2592,13 +2628,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5769230769230769</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2610,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K38">
         <v>0.7142857142857143</v>
@@ -2642,13 +2678,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.575</v>
+        <v>0.6107382550335571</v>
       </c>
       <c r="C39">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="D39">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2660,19 +2696,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K39">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2684,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2692,13 +2728,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5384615384615384</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2710,19 +2746,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K40">
-        <v>0.7037037037037037</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2734,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2742,13 +2778,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5185185185185185</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2760,19 +2796,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K41">
-        <v>0.702928870292887</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L41">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2784,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2792,13 +2828,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5161290322580645</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2810,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K42">
-        <v>0.7021276595744681</v>
+        <v>0.694560669456067</v>
       </c>
       <c r="L42">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="M42">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2834,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2842,13 +2878,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5135135135135135</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2860,19 +2896,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K43">
-        <v>0.6966292134831461</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L43">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2884,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2892,13 +2928,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2910,10 +2946,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K44">
         <v>0.6842105263157895</v>
@@ -2942,37 +2978,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E45">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K45">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2992,13 +3028,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4838709677419355</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3010,19 +3046,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K46">
-        <v>0.6714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L46">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3034,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3042,13 +3078,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4727272727272727</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3060,19 +3096,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K47">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3084,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3092,13 +3128,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4642857142857143</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3110,19 +3146,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K48">
-        <v>0.6615384615384615</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L48">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M48">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3134,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3142,13 +3178,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4266666666666667</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3160,31 +3196,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K49">
-        <v>0.66</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L49">
+        <v>56</v>
+      </c>
+      <c r="M49">
+        <v>56</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <v>33</v>
-      </c>
-      <c r="M49">
-        <v>33</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3192,13 +3228,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="C50">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D50">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3210,19 +3246,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K50">
-        <v>0.6538461538461539</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3234,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3242,13 +3278,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3260,19 +3296,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K51">
-        <v>0.6296296296296297</v>
+        <v>0.6</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3284,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3292,13 +3328,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3134920634920635</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C52">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3310,19 +3346,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K52">
-        <v>0.6222222222222222</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3334,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3342,13 +3378,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3</v>
+        <v>0.2375</v>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3360,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K53">
-        <v>0.6086956521739131</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L53">
         <v>14</v>
@@ -3384,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3392,13 +3428,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2727272727272727</v>
+        <v>0.1447721179624665</v>
       </c>
       <c r="C54">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D54">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3410,19 +3446,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K54">
-        <v>0.5833333333333334</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3442,13 +3478,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1742627345844504</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C55">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D55">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3460,19 +3496,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K55">
-        <v>0.5476190476190477</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3484,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3492,49 +3528,49 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.007154882154882155</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E56">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="F56">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>2359</v>
+        <v>1140</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K56">
-        <v>0.5416666666666666</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L56">
+        <v>15</v>
+      </c>
+      <c r="M56">
+        <v>15</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
         <v>13</v>
-      </c>
-      <c r="M56">
-        <v>13</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3542,37 +3578,37 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.005637467476149176</v>
+        <v>0.0164463076426959</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E57">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="F57">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>2293</v>
+        <v>3050</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K57">
-        <v>0.5294117647058824</v>
+        <v>0.53125</v>
       </c>
       <c r="L57">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M57">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3584,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3592,37 +3628,37 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004507405022537025</v>
+        <v>0.01594533029612756</v>
       </c>
       <c r="C58">
         <v>14</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E58">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="F58">
-        <v>0.9299999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>3092</v>
+        <v>864</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K58">
-        <v>0.5068493150684932</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L58">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3634,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3642,37 +3678,37 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002811244979919679</v>
+        <v>0.01474926253687316</v>
       </c>
       <c r="C59">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E59">
-        <v>0.53</v>
+        <v>0.15</v>
       </c>
       <c r="F59">
-        <v>0.47</v>
+        <v>0.85</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>4966</v>
+        <v>2338</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K59">
-        <v>0.5</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3684,15 +3720,39 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.01018010963194988</v>
+      </c>
+      <c r="C60">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>25</v>
+      </c>
+      <c r="E60">
+        <v>0.48</v>
+      </c>
+      <c r="F60">
+        <v>0.52</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1264</v>
+      </c>
       <c r="J60" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K60">
-        <v>0.484375</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="L60">
         <v>31</v>
@@ -3710,93 +3770,189 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.008890968647636874</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>25</v>
+      </c>
+      <c r="E61">
+        <v>0.24</v>
+      </c>
+      <c r="F61">
+        <v>0.76</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2118</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K61">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="L61">
+        <v>15</v>
+      </c>
+      <c r="M61">
+        <v>15</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.006834170854271356</v>
+      </c>
+      <c r="C62">
+        <v>34</v>
+      </c>
+      <c r="D62">
+        <v>55</v>
+      </c>
+      <c r="E62">
+        <v>0.38</v>
+      </c>
+      <c r="F62">
+        <v>0.62</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>4941</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K62">
         <v>0.4743589743589743</v>
       </c>
-      <c r="L61">
+      <c r="L62">
         <v>37</v>
       </c>
-      <c r="M61">
+      <c r="M62">
         <v>37</v>
       </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
-      <c r="J62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K62">
-        <v>0.4516129032258064</v>
-      </c>
-      <c r="L62">
-        <v>14</v>
-      </c>
-      <c r="M62">
-        <v>14</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>17</v>
-      </c>
-    </row>
     <row r="63" spans="1:17">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.005245774237419856</v>
+      </c>
+      <c r="C63">
+        <v>27</v>
+      </c>
+      <c r="D63">
+        <v>45</v>
+      </c>
+      <c r="E63">
+        <v>0.4</v>
+      </c>
+      <c r="F63">
+        <v>0.6</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>5120</v>
+      </c>
       <c r="J63" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K63">
+        <v>0.4657534246575342</v>
+      </c>
+      <c r="L63">
+        <v>34</v>
+      </c>
+      <c r="M63">
+        <v>34</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.004412447747329308</v>
+      </c>
+      <c r="C64">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>41</v>
+      </c>
+      <c r="E64">
+        <v>0.54</v>
+      </c>
+      <c r="F64">
+        <v>0.46</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>4287</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K64">
         <v>0.4117647058823529</v>
-      </c>
-      <c r="L63">
-        <v>14</v>
-      </c>
-      <c r="M63">
-        <v>14</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="J64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K64">
-        <v>0.3181818181818182</v>
       </c>
       <c r="L64">
         <v>14</v>
@@ -3814,21 +3970,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K65">
-        <v>0.3050847457627119</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L65">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M65">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3840,21 +3996,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K66">
-        <v>0.2456140350877193</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="L66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3866,15 +4022,15 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K67">
-        <v>0.2131147540983606</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L67">
         <v>13</v>
@@ -3892,111 +4048,345 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K68">
-        <v>0.1944444444444444</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L68">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N68">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K69">
-        <v>0.007868115399025852</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="L69">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N69">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>2648</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K70">
-        <v>0.004384591293454432</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="L70">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M70">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N70">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>3179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="K71">
-        <v>0.003211561621838619</v>
+        <v>0.05190311418685121</v>
       </c>
       <c r="L71">
+        <v>15</v>
+      </c>
+      <c r="M71">
+        <v>15</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K72">
+        <v>0.03753127606338615</v>
+      </c>
+      <c r="L72">
+        <v>45</v>
+      </c>
+      <c r="M72">
+        <v>46</v>
+      </c>
+      <c r="N72">
+        <v>0.98</v>
+      </c>
+      <c r="O72">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K73">
+        <v>0.02935779816513762</v>
+      </c>
+      <c r="L73">
         <v>16</v>
       </c>
-      <c r="M71">
-        <v>30</v>
-      </c>
-      <c r="N71">
-        <v>0.53</v>
-      </c>
-      <c r="O71">
-        <v>0.47</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>4966</v>
+      <c r="M73">
+        <v>18</v>
+      </c>
+      <c r="N73">
+        <v>0.89</v>
+      </c>
+      <c r="O73">
+        <v>0.11</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K74">
+        <v>0.008774678784080225</v>
+      </c>
+      <c r="L74">
+        <v>28</v>
+      </c>
+      <c r="M74">
+        <v>38</v>
+      </c>
+      <c r="N74">
+        <v>0.74</v>
+      </c>
+      <c r="O74">
+        <v>0.26</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K75">
+        <v>0.007879924953095686</v>
+      </c>
+      <c r="L75">
+        <v>21</v>
+      </c>
+      <c r="M75">
+        <v>29</v>
+      </c>
+      <c r="N75">
+        <v>0.72</v>
+      </c>
+      <c r="O75">
+        <v>0.28</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K76">
+        <v>0.005744768157570784</v>
+      </c>
+      <c r="L76">
+        <v>14</v>
+      </c>
+      <c r="M76">
+        <v>22</v>
+      </c>
+      <c r="N76">
+        <v>0.64</v>
+      </c>
+      <c r="O76">
+        <v>0.36</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K77">
+        <v>0.005434782608695652</v>
+      </c>
+      <c r="L77">
+        <v>13</v>
+      </c>
+      <c r="M77">
+        <v>15</v>
+      </c>
+      <c r="N77">
+        <v>0.87</v>
+      </c>
+      <c r="O77">
+        <v>0.13</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K78">
+        <v>0.00510559294499884</v>
+      </c>
+      <c r="L78">
+        <v>22</v>
+      </c>
+      <c r="M78">
+        <v>41</v>
+      </c>
+      <c r="N78">
+        <v>0.54</v>
+      </c>
+      <c r="O78">
+        <v>0.46</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K79">
+        <v>0.004232164449818622</v>
+      </c>
+      <c r="L79">
+        <v>21</v>
+      </c>
+      <c r="M79">
+        <v>55</v>
+      </c>
+      <c r="N79">
+        <v>0.38</v>
+      </c>
+      <c r="O79">
+        <v>0.62</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K80">
+        <v>0.003503308680420397</v>
+      </c>
+      <c r="L80">
+        <v>18</v>
+      </c>
+      <c r="M80">
+        <v>45</v>
+      </c>
+      <c r="N80">
+        <v>0.4</v>
+      </c>
+      <c r="O80">
+        <v>0.6</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>5120</v>
       </c>
     </row>
   </sheetData>
